--- a/src/test/resources/Book2.xlsx
+++ b/src/test/resources/Book2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>FullName</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>ManualTesting</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -91,12 +97,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -112,9 +124,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -420,7 +433,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,6 +480,9 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -478,6 +494,9 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -488,6 +507,9 @@
       </c>
       <c r="C5" t="s">
         <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -503,12 +525,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
